--- a/docs/odh/shr-core-Group-model.xlsx
+++ b/docs/odh/shr-core-Group-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Group-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-Group-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -190,36 +186,43 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>shr-core-Group-model.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
+</t>
+  </si>
+  <si>
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Whether the record is in use (true) or retired (false).</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.type</t>
+  </si>
+  <si>
+    <t>A code describing the item at a greater level of detail.</t>
+  </si>
+  <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>shr-core-Group-model.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Business identifier or external id for this resource.</t>
-  </si>
-  <si>
-    <t>shr-core-Group-model.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
-</t>
-  </si>
-  <si>
-    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
-  </si>
-  <si>
-    <t>shr-core-Group-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/group-type</t>
@@ -229,30 +232,42 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Group-model.title</t>
+    <t>shr-core-Group-model.actual</t>
+  </si>
+  <si>
+    <t>True if the group is an actual group (as opposed to definitional).</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.name</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A distinguishing word or group of words naming an item.</t>
-  </si>
-  <si>
-    <t>shr-core-Group-model.actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t>The name as plain unstructured or semi-structured text.</t>
+  </si>
+  <si>
+    <t>shr-core-Group-model.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt {[]} {[]}
 </t>
   </si>
   <si>
-    <t>True if the group is an actual group (as opposed to definitional).</t>
+    <t>The number of items (0 or more), as an integer.</t>
   </si>
   <si>
     <t>shr-core-Group-model.groupCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-GroupCharacteristic-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-GroupCharacteristic-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -263,32 +278,24 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Group-model.memberParticipation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-MemberParticipation-model {[]} {[]}
+    <t>shr-core-Group-model.groupParticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-GroupParticipation-model {[]} {[]}
 </t>
   </si>
   <si>
     <t>A person or entity in a group.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682343 (Member of Target Group)
+    <t>shr-core-Group-model.managingEntity[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson-model], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-Group-model.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The number of items (0 or more), as an integer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0750480
-</t>
+    <t>Entity responsible for defining and maintaining Group characteristics and/or registered members.</t>
   </si>
 </sst>
 </file>
@@ -437,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -446,7 +453,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -470,13 +477,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="36.8828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -849,7 +856,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -881,7 +888,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -904,13 +911,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -961,7 +968,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -978,7 +985,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1001,13 +1008,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1058,7 +1065,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1075,7 +1082,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1086,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1101,10 +1108,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1131,11 +1138,13 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1153,13 +1162,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1170,7 +1179,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1193,13 +1202,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1250,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1267,7 +1276,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1290,13 +1299,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1347,7 +1356,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1372,7 +1381,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>41</v>
@@ -1387,13 +1396,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1420,14 +1429,16 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y10" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1442,10 +1453,10 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>41</v>
@@ -1459,7 +1470,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1467,7 +1478,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>41</v>
@@ -1482,13 +1493,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1515,16 +1526,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1539,10 +1548,10 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1556,7 +1565,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1579,13 +1588,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1636,7 +1645,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -1653,7 +1662,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1664,7 +1673,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>36</v>
@@ -1676,13 +1685,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1718,7 +1727,7 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>36</v>
@@ -1733,13 +1742,13 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>36</v>
@@ -1750,7 +1759,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1761,7 +1770,7 @@
         <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -1773,13 +1782,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1815,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1830,13 +1839,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1870,13 +1879,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1912,38 +1921,329 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI15" t="s" s="2">
+      <c r="L17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI15">
+  <autoFilter ref="A1:AI18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1953,7 +2253,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
